--- a/package_401/data/api_test.xlsx
+++ b/package_401/data/api_test.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="8" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12615" windowWidth="28800"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12615" windowWidth="24345"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet_temp" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="login" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="register" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="recharge" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="withdraw" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="bidLoan" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="add" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="audit" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet_temp" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sendMCode" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="userRegister" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="verifyUserAuth" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bindBankCard" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="bidLoan" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="add" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="audit" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -69,14 +69,75 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -98,38 +159,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -145,37 +176,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
       <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -183,7 +183,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -209,25 +209,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,13 +263,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,25 +353,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,103 +389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,15 +400,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -423,15 +414,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,6 +433,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -462,6 +462,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,15 +500,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -508,10 +508,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="22" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="6" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -520,16 +520,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
@@ -541,112 +541,112 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="19" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="13" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="9" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="12" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="9" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="12" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="25" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="8" fillId="29" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="34" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="21" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="20" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="34" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="27" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1029,7 +1029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -7394,93 +7394,93 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/member/register" ref="F2" r:id="rId1"/>
-    <hyperlink display="/member/register" ref="F3" r:id="rId2"/>
-    <hyperlink display="/member/register" ref="F4" r:id="rId3"/>
-    <hyperlink display="/member/register" ref="F5" r:id="rId4"/>
-    <hyperlink display="/member/register" ref="F6" r:id="rId5"/>
-    <hyperlink display="/member/register" ref="F7" r:id="rId6"/>
-    <hyperlink display="/member/register" ref="F8" r:id="rId7"/>
-    <hyperlink display="/member/register" ref="F9" r:id="rId8"/>
-    <hyperlink display="/member/login" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId9"/>
-    <hyperlink display="/member/login" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId10"/>
-    <hyperlink display="/member/login" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId11"/>
-    <hyperlink display="/member/login" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId12"/>
-    <hyperlink display="/member/recharge" ref="F14" r:id="rId13"/>
-    <hyperlink display="/member/recharge" ref="F15" r:id="rId14"/>
-    <hyperlink display="/member/recharge" ref="F16" r:id="rId15"/>
-    <hyperlink display="/member/recharge" ref="F17" r:id="rId16"/>
-    <hyperlink display="/member/recharge" ref="F18" r:id="rId17"/>
-    <hyperlink display="/member/recharge" ref="F19" r:id="rId18"/>
-    <hyperlink display="/member/recharge" ref="F20" r:id="rId19"/>
-    <hyperlink display="/member/recharge" ref="F21" r:id="rId20"/>
-    <hyperlink display="/member/recharge" ref="F22" r:id="rId21"/>
-    <hyperlink display="/member/withdraw" ref="F23" r:id="rId22"/>
-    <hyperlink display="/member/withdraw" ref="F24" r:id="rId23"/>
-    <hyperlink display="/member/withdraw" ref="F25" r:id="rId24"/>
-    <hyperlink display="/member/withdraw" ref="F26" r:id="rId25"/>
-    <hyperlink display="/member/withdraw" ref="F27" r:id="rId26"/>
-    <hyperlink display="/member/withdraw" ref="F28" r:id="rId27"/>
-    <hyperlink display="/member/withdraw" ref="F29" r:id="rId28"/>
-    <hyperlink display="/member/withdraw" ref="F30" r:id="rId29"/>
-    <hyperlink display="/member/withdraw" ref="F31" r:id="rId30"/>
-    <hyperlink display="/member/withdraw" ref="F32" r:id="rId31"/>
-    <hyperlink display="/member/list" ref="F33" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/list" r:id="rId32"/>
-    <hyperlink display="/member/bidLoan" ref="F34" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId33"/>
-    <hyperlink display="/member/add" ref="F35" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId34"/>
-    <hyperlink display="/member/bidLoan" ref="F36" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId35"/>
-    <hyperlink display="/member/bidLoan" ref="F37" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId36"/>
-    <hyperlink display="/member/bidLoan" ref="F38" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId37"/>
-    <hyperlink display="/member/bidLoan" ref="F39" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId38"/>
-    <hyperlink display="/member/bidLoan" ref="F40" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId39"/>
-    <hyperlink display="/member/bidLoan" ref="F41" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId40"/>
-    <hyperlink display="/member/bidLoan" ref="F42" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId41"/>
-    <hyperlink display="/member/bidLoan" ref="F43" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId42"/>
-    <hyperlink display="/member/bidLoan" ref="F44" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId43"/>
-    <hyperlink display="/member/bidLoan" ref="F45" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId44"/>
-    <hyperlink display="/member/bidLoan" ref="F46" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId45"/>
-    <hyperlink display="/member/bidLoan" ref="F47" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId46"/>
-    <hyperlink display="/member/bidLoan" ref="F48" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId47"/>
-    <hyperlink display="/member/bidLoan" ref="F49" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId48"/>
-    <hyperlink display="/member/bidLoan" ref="F50" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId49"/>
-    <hyperlink display="/member/bidLoan" ref="F51" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId50"/>
-    <hyperlink display="/member/bidLoan" ref="F52" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId51"/>
-    <hyperlink display="/member/bidLoan" ref="F53" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId52"/>
-    <hyperlink display="/member/bidLoan" ref="F54" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId53"/>
-    <hyperlink display="/member/bidLoan" ref="F55" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId54"/>
-    <hyperlink display="/member/bidLoan" ref="F56" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId55"/>
-    <hyperlink display="/member/bidLoan" ref="F57" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId56"/>
-    <hyperlink display="/member/bidLoan" ref="F58" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId57"/>
-    <hyperlink display="/member/bidLoan" ref="F59" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId58"/>
-    <hyperlink display="/member/bidLoan" ref="F60" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId59"/>
-    <hyperlink display="/member/add" ref="F61" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId60"/>
-    <hyperlink display="/member/add" ref="F62" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId61"/>
-    <hyperlink display="/member/add" ref="F63" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId62"/>
-    <hyperlink display="/member/add" ref="F64" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId63"/>
-    <hyperlink display="/member/add" ref="F65" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId64"/>
-    <hyperlink display="/member/add" ref="F66" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId65"/>
-    <hyperlink display="/member/add" ref="F67" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId66"/>
-    <hyperlink display="/member/add" ref="F68" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId67"/>
-    <hyperlink display="/member/add" ref="F69" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId68"/>
-    <hyperlink display="/member/add" ref="F70" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId69"/>
-    <hyperlink display="/member/add" ref="F71" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId70"/>
-    <hyperlink display="/member/add" ref="F72" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId71"/>
-    <hyperlink display="/member/add" ref="F73" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId72"/>
-    <hyperlink display="/member/add" ref="F74" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId73"/>
-    <hyperlink display="/member/add" ref="F75" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId74"/>
-    <hyperlink display="/member/add" ref="F76" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId75"/>
-    <hyperlink display="/member/add" ref="F77" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId76"/>
-    <hyperlink display="/member/add" ref="F78" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId77"/>
-    <hyperlink display="/member/add" ref="F79" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId78"/>
-    <hyperlink display="/member/add" ref="F80" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId79"/>
-    <hyperlink display="/member/add" ref="F81" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId80"/>
-    <hyperlink display="/member/add" ref="F82" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId81"/>
-    <hyperlink display="/member/add" ref="F83" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId82"/>
-    <hyperlink display="/member/add" ref="F84" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId83"/>
-    <hyperlink display="/member/add" ref="F85" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId84"/>
-    <hyperlink display="/member/add" ref="F86" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId85"/>
-    <hyperlink display="/member/add" ref="F87" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId86"/>
-    <hyperlink display="/member/add" ref="F88" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId87"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="F9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="F13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F14" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F15" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F16" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F17" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F18" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F19" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F20" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F21" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="F22" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F23" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F24" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F25" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F26" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F27" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F28" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F29" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F30" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F31" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="F32" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/list" ref="F33" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/list" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F34" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F35" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F36" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F37" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F38" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F39" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F40" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F41" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F42" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F43" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F44" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F45" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F46" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F47" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F48" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F49" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F50" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F51" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F52" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F53" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F54" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F55" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F56" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F57" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F58" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId57"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F59" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId58"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/bidLoan" ref="F60" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId59"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F61" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId60"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F62" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId61"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F63" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId62"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F64" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId63"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F65" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId64"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F66" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId65"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F67" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId66"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F68" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId67"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F69" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId68"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F70" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId69"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F71" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId70"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F72" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId71"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F73" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId72"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F74" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId73"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F75" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId74"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F76" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId75"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F77" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId76"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F78" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId77"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F79" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId78"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F80" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId79"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F81" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId80"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F82" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId81"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F83" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId82"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F84" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId83"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F85" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId84"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F86" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId85"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F87" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId86"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/add" ref="F88" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId87"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -7488,7 +7488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -9352,18 +9352,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/member/register" ref="G2" r:id="rId1"/>
-    <hyperlink display="/member/register" ref="G3" r:id="rId2"/>
-    <hyperlink display="/member/register" ref="G4" r:id="rId3"/>
-    <hyperlink display="/member/register" ref="G5" r:id="rId4"/>
-    <hyperlink display="/member/register" ref="G6" r:id="rId5"/>
-    <hyperlink display="/member/register" ref="G7" r:id="rId6"/>
-    <hyperlink display="/member/register" ref="G8" r:id="rId7"/>
-    <hyperlink display="/member/login" ref="G9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId8"/>
-    <hyperlink display="/member/login" ref="G10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId9"/>
-    <hyperlink display="/member/login" ref="G11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId10"/>
-    <hyperlink display="/member/login" ref="G12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId11"/>
-    <hyperlink display="get" ref="E13" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/register" ref="G8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="G9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="G10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="G11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/login" ref="G12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="get" ref="E13" r:id="rId12"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -9371,20 +9371,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col customWidth="1" max="10" min="10" style="2" width="12.625"/>
+    <col customWidth="1" max="2" min="2" style="2" width="10.375"/>
+    <col customWidth="1" max="3" min="3" style="2" width="29.625"/>
+    <col customWidth="1" max="4" min="4" style="2" width="10.375"/>
+    <col customWidth="1" max="8" min="8" style="2" width="9.25"/>
+    <col customWidth="1" max="9" min="9" style="2" width="8"/>
+    <col customWidth="1" max="10" min="10" style="2" width="10.375"/>
+    <col customWidth="1" max="11" min="11" style="2" width="9.375"/>
+    <col customWidth="1" max="12" min="12" style="2" width="12.625"/>
+    <col customWidth="1" max="14" min="14" style="2" width="15.125"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1">
@@ -9435,90 +9443,30 @@
       </c>
       <c r="J1" s="4" t="inlineStr">
         <is>
-          <t>mobilephone</t>
+          <t>client_ip</t>
         </is>
       </c>
       <c r="K1" s="4" t="inlineStr">
         <is>
-          <t>memberId</t>
+          <t>tmpl_id</t>
         </is>
       </c>
       <c r="L1" s="4" t="inlineStr">
         <is>
-          <t>title</t>
-        </is>
-      </c>
-      <c r="M1" s="4" t="inlineStr">
-        <is>
-          <t>loanRate</t>
-        </is>
-      </c>
-      <c r="N1" s="4" t="inlineStr">
-        <is>
-          <t>loanTerm</t>
-        </is>
-      </c>
-      <c r="O1" s="4" t="inlineStr">
-        <is>
-          <t>loanDateType</t>
-        </is>
-      </c>
-      <c r="P1" s="4" t="inlineStr">
-        <is>
-          <t>repaymemtWay</t>
-        </is>
-      </c>
-      <c r="Q1" s="4" t="inlineStr">
-        <is>
-          <t>biddingDays</t>
-        </is>
-      </c>
-      <c r="R1" s="4" t="inlineStr">
-        <is>
-          <t>loanId</t>
-        </is>
-      </c>
-      <c r="S1" s="4" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="T1" s="4" t="inlineStr">
-        <is>
-          <t>pwd</t>
-        </is>
-      </c>
-      <c r="U1" s="4" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="V1" s="4" t="inlineStr">
-        <is>
-          <t>regname</t>
-        </is>
-      </c>
-      <c r="W1" s="5" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="X1" s="5" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="Y1" s="5" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="Z1" s="5" t="inlineStr">
-        <is>
-          <t>msg</t>
-        </is>
-      </c>
-      <c r="AA1" s="0" t="inlineStr">
+          <t>mobile</t>
+        </is>
+      </c>
+      <c r="M1" s="5" t="inlineStr">
+        <is>
+          <t>retCode</t>
+        </is>
+      </c>
+      <c r="N1" s="5" t="inlineStr">
+        <is>
+          <t>retInfo</t>
+        </is>
+      </c>
+      <c r="O1" s="0" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -9530,17 +9478,17 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>login</t>
+          <t>sendMCode</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>登陆成功</t>
+          <t>发送验证码成功</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>login</t>
+          <t>sendMCode</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -9548,46 +9496,50 @@
           <t>post</t>
         </is>
       </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>SELECT Fverify_code from t_mvcode_info_#tableno# where Fmobile_no = #mobile#</t>
+        </is>
+      </c>
       <c r="G2" s="8" t="inlineStr">
         <is>
-          <t>/member/login</t>
+          <t>/sms-service-war-1.0/ws/smsFacade.ws?wsdl</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>{"mobilephone": "13912345611", "pwd": "123456"}</t>
+          <t>{"client_ip": "0.0.0.0", "tmpl_id": "1", "mobile": "13358341234"}</t>
         </is>
       </c>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>{"status": 1, "code": "10001", "data": null, "msg": "成功"}</t>
-        </is>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>13912345611</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>123456</v>
-      </c>
-      <c r="W2" s="1" t="n">
+          <t>{"retCode": "0", "retInfo": "ok"}</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>0.0.0.0</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X2" s="1" t="n">
-        <v>10001</v>
-      </c>
-      <c r="Y2" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Z2" s="1" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="AA2" s="0" t="inlineStr">
-        <is>
-          <t>passed</t>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>#phone#</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="O2" s="0" t="inlineStr">
+        <is>
+          <t>failed</t>
         </is>
       </c>
     </row>
@@ -9597,17 +9549,17 @@
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>login</t>
+          <t>sendMCode</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>登陆失败，手机号码为空</t>
+          <t>发送失败，无手机号</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>login</t>
+          <t>sendMCode</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
@@ -9617,39 +9569,38 @@
       </c>
       <c r="G3" s="8" t="inlineStr">
         <is>
-          <t>/member/login</t>
+          <t>/sms-service-war-1.0/ws/smsFacade.ws?wsdl</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>{"pwd": "123456"}</t>
+          <t>{"client_ip": "0.0.0.0", "tmpl_id": "1"}</t>
         </is>
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>{"status": 0, "code": "20103", "data": null, "msg": "参数错误：参数不能为空"}</t>
-        </is>
-      </c>
-      <c r="T3" s="1" t="n">
-        <v>123456</v>
-      </c>
-      <c r="W3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" s="1" t="n">
-        <v>20103</v>
-      </c>
-      <c r="Y3" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Z3" s="1" t="inlineStr">
-        <is>
-          <t>参数错误：参数不能为空</t>
-        </is>
-      </c>
-      <c r="AA3" s="0" t="inlineStr">
+          <t>{"retCode": "soap:Server", "retInfo": "手机号码错误"}</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>0.0.0.0</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>soap:Server</t>
+        </is>
+      </c>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>手机号码错误</t>
+        </is>
+      </c>
+      <c r="O3" s="0" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -9661,17 +9612,17 @@
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>login</t>
+          <t>sendMCode</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>登陆失败，密码为空</t>
+          <t>发送失败，无ip地址</t>
         </is>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>login</t>
+          <t>sendMCode</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
@@ -9681,39 +9632,38 @@
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>/member/login</t>
+          <t>/sms-service-war-1.0/ws/smsFacade.ws?wsdl</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>{"mobilephone": "13912345611"}</t>
+          <t>{"tmpl_id": "1", "mobile": "13358341234"}</t>
         </is>
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>{"status": 0, "code": "20103", "data": null, "msg": "参数错误：参数不能为空"}</t>
-        </is>
-      </c>
-      <c r="J4" s="1" t="n">
-        <v>13912345611</v>
-      </c>
-      <c r="W4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1" t="n">
-        <v>20103</v>
-      </c>
-      <c r="Y4" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Z4" s="1" t="inlineStr">
-        <is>
-          <t>参数错误：参数不能为空</t>
-        </is>
-      </c>
-      <c r="AA4" s="0" t="inlineStr">
+          <t>{"retCode": "soap:Server", "retInfo": "用户IP不能为空"}</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>#phone#</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>soap:Server</t>
+        </is>
+      </c>
+      <c r="N4" s="1" t="inlineStr">
+        <is>
+          <t>用户IP不能为空</t>
+        </is>
+      </c>
+      <c r="O4" s="0" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -9725,17 +9675,17 @@
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>login</t>
+          <t>sendMCode</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>登陆失败，用户名或者密码错误</t>
+          <t>发送失败，无短信模版</t>
         </is>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>login</t>
+          <t>sendMCode</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
@@ -9745,76 +9695,81 @@
       </c>
       <c r="G5" s="8" t="inlineStr">
         <is>
-          <t>/member/login</t>
+          <t>/sms-service-war-1.0/ws/smsFacade.ws?wsdl</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>{"mobilephone": "13912345611", "pwd": "123457"}</t>
+          <t>{"client_ip": "0.0.0.0", "mobile": "13358341234"}</t>
         </is>
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>{"status": 0, "code": "20111", "data": null, "msg": "用户名或者密码错误"}</t>
-        </is>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>13912345611</v>
-      </c>
-      <c r="T5" s="1" t="n">
-        <v>123457</v>
-      </c>
-      <c r="W5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1" t="n">
-        <v>20111</v>
-      </c>
-      <c r="Y5" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Z5" s="1" t="inlineStr">
-        <is>
-          <t>用户名或者密码错误</t>
-        </is>
-      </c>
-      <c r="AA5" s="0" t="inlineStr">
+          <t>{"retCode": "soap:Server", "retInfo": "短信模板ID错误"}</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="inlineStr">
+        <is>
+          <t>0.0.0.0</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>#phone#</t>
+        </is>
+      </c>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>soap:Server</t>
+        </is>
+      </c>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
+          <t>短信模板ID错误</t>
+        </is>
+      </c>
+      <c r="O5" s="0" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="/member/login" ref="G2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId1"/>
-    <hyperlink display="/member/login" ref="G3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId2"/>
-    <hyperlink display="/member/login" ref="G4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId3"/>
-    <hyperlink display="/member/login" ref="G5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/login" r:id="rId4"/>
-  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="H9" xSplit="3" ySplit="8"/>
+      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" pane="topRight" sqref="A1"/>
+      <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
+      <selection activeCell="I15" pane="bottomRight" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
+    <col customWidth="1" max="2" min="2" style="2" width="13.75"/>
+    <col customWidth="1" max="3" min="3" style="2" width="17.125"/>
+    <col customWidth="1" max="4" min="4" style="2" width="13.75"/>
     <col customWidth="1" max="7" min="7" style="2" width="18.25"/>
-    <col customWidth="1" max="8" min="8" style="2" width="21.75"/>
-    <col customWidth="1" max="9" min="9" style="2" width="14.875"/>
-    <col customWidth="1" max="10" min="10" style="2" width="12.625"/>
+    <col customWidth="1" max="8" min="8" style="2" width="11.875"/>
+    <col customWidth="1" max="9" min="9" style="2" width="7.5"/>
+    <col customWidth="1" max="10" min="10" style="2" width="10.375"/>
+    <col customWidth="1" max="11" min="11" style="2" width="9.375"/>
+    <col customWidth="1" max="12" min="12" style="2" width="14.875"/>
+    <col customWidth="1" max="14" min="14" style="2" width="12.625"/>
+    <col customWidth="1" max="16" min="16" style="2" width="12.625"/>
+    <col customWidth="1" max="18" min="18" style="2" width="12.625"/>
+    <col customWidth="1" max="19" min="19" style="2" width="15.125"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1">
@@ -9865,90 +9820,55 @@
       </c>
       <c r="J1" s="4" t="inlineStr">
         <is>
-          <t>mobilephone</t>
+          <t>client_ip</t>
         </is>
       </c>
       <c r="K1" s="4" t="inlineStr">
         <is>
-          <t>memberId</t>
+          <t>tmpl_id</t>
         </is>
       </c>
       <c r="L1" s="4" t="inlineStr">
         <is>
-          <t>title</t>
+          <t>verify_code</t>
         </is>
       </c>
       <c r="M1" s="4" t="inlineStr">
         <is>
-          <t>loanRate</t>
+          <t>user_id</t>
         </is>
       </c>
       <c r="N1" s="4" t="inlineStr">
         <is>
-          <t>loanTerm</t>
+          <t>channel_id</t>
         </is>
       </c>
       <c r="O1" s="4" t="inlineStr">
         <is>
-          <t>loanDateType</t>
+          <t>pwd</t>
         </is>
       </c>
       <c r="P1" s="4" t="inlineStr">
         <is>
-          <t>repaymemtWay</t>
+          <t>mobile</t>
         </is>
       </c>
       <c r="Q1" s="4" t="inlineStr">
         <is>
-          <t>biddingDays</t>
-        </is>
-      </c>
-      <c r="R1" s="4" t="inlineStr">
-        <is>
-          <t>loanId</t>
-        </is>
-      </c>
-      <c r="S1" s="4" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="T1" s="4" t="inlineStr">
-        <is>
-          <t>pwd</t>
-        </is>
-      </c>
-      <c r="U1" s="4" t="inlineStr">
-        <is>
-          <t>amount</t>
-        </is>
-      </c>
-      <c r="V1" s="4" t="inlineStr">
-        <is>
-          <t>regname</t>
-        </is>
-      </c>
-      <c r="W1" s="5" t="inlineStr">
-        <is>
-          <t>status</t>
-        </is>
-      </c>
-      <c r="X1" s="5" t="inlineStr">
-        <is>
-          <t>code</t>
-        </is>
-      </c>
-      <c r="Y1" s="5" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="Z1" s="5" t="inlineStr">
-        <is>
-          <t>msg</t>
-        </is>
-      </c>
-      <c r="AA1" s="0" t="inlineStr">
+          <t>ip</t>
+        </is>
+      </c>
+      <c r="R1" s="5" t="inlineStr">
+        <is>
+          <t>retCode</t>
+        </is>
+      </c>
+      <c r="S1" s="5" t="inlineStr">
+        <is>
+          <t>retInfo</t>
+        </is>
+      </c>
+      <c r="T1" s="0" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -9960,17 +9880,17 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>register</t>
+          <t>sendMCode</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>注册成功，昵称为空</t>
+          <t>发送验证码成功</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>register</t>
+          <t>sendMCode</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
@@ -9978,46 +9898,49 @@
           <t>post</t>
         </is>
       </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>SELECT Fverify_code from t_mvcode_info_#tableno# where Fmobile_no = #mobile#</t>
+        </is>
+      </c>
       <c r="G2" s="8" t="inlineStr">
         <is>
-          <t>/member/register</t>
+          <t>/sms-service-war-1.0/ws/smsFacade.ws?wsdl</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
         <is>
-          <t>{"mobilephone": "#reg_phone#", "pwd": "123456"}</t>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t>{"status": 1, "code": "10001", "data": null, "msg": "成功"}</t>
+          <t>{"client_ip": "0.0.0.0", "tmpl_id": "1", "mobile": "#phone#"}</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>{"retCode": "0", "retInfo": "ok"}</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>#reg_phone#</t>
-        </is>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>123456</v>
-      </c>
-      <c r="W2" s="1" t="n">
+          <t>0.0.0.0</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X2" s="1" t="n">
-        <v>10001</v>
-      </c>
-      <c r="Y2" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Z2" s="1" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="AA2" s="0" t="inlineStr">
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>#phone#</t>
+        </is>
+      </c>
+      <c r="Q2" s="0" t="n"/>
+      <c r="R2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="T2" s="0" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -10025,21 +9948,21 @@
     </row>
     <row customFormat="1" r="3" s="1">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>register</t>
+          <t>userRegister</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>注册成功，昵称不为空</t>
+          <t>注册成功</t>
         </is>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t>register</t>
+          <t>userRegister</t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
@@ -10049,71 +9972,72 @@
       </c>
       <c r="G3" s="8" t="inlineStr">
         <is>
-          <t>/member/register</t>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
         </is>
       </c>
       <c r="H3" s="1" t="inlineStr">
         <is>
-          <t>{"mobilephone": "#reg_phone#", "pwd": "123456", "regname": "july"}</t>
+          <t>{"verify_code": "#verify_code#", "user_id": "july", "channel_id": "1", "pwd": "july401@", "mobile": "#phone#", "ip": "0.0.0.0"}</t>
         </is>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>{"status": 1, "code": "10001", "data": null, "msg": "成功"}</t>
-        </is>
-      </c>
-      <c r="J3" s="1" t="inlineStr">
-        <is>
-          <t>#reg_phone#</t>
-        </is>
-      </c>
-      <c r="T3" s="1" t="n">
-        <v>123456</v>
-      </c>
-      <c r="V3" s="1" t="inlineStr">
+          <t>{"retCode": "0", "retInfo": "ok"}</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>#verify_code#</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>july</t>
         </is>
       </c>
-      <c r="W3" s="1" t="n">
+      <c r="N3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X3" s="1" t="n">
-        <v>10001</v>
-      </c>
-      <c r="Y3" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Z3" s="1" t="inlineStr">
-        <is>
-          <t>成功</t>
-        </is>
-      </c>
-      <c r="AA3" s="0" t="inlineStr">
-        <is>
-          <t>passed</t>
+      <c r="O3" s="1" t="inlineStr">
+        <is>
+          <t>july401@</t>
+        </is>
+      </c>
+      <c r="P3" s="1" t="inlineStr">
+        <is>
+          <t>#phone#</t>
+        </is>
+      </c>
+      <c r="Q3" s="1" t="inlineStr">
+        <is>
+          <t>0.0.0.0</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" s="1" t="inlineStr">
+        <is>
+          <t>ok</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="4" s="1">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>register</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t>注册失败，手机号码为空</t>
-        </is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="C4" s="1">
+        <f>"注册失败，"&amp;S4</f>
+        <v/>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t>register</t>
+          <t>userRegister</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
@@ -10123,66 +10047,69 @@
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>/member/register</t>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
         </is>
       </c>
       <c r="H4" s="1" t="inlineStr">
         <is>
-          <t>{"pwd": "123456", "regname": "august"}</t>
+          <t>{"user_id": "july", "channel_id": "1", "pwd": "july401@", "mobile": "#phone#", "ip": "0.0.0.0"}</t>
         </is>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>{"status": 0, "code": "20103", "data": null, "msg": "参数错误：参数不能为空"}</t>
-        </is>
-      </c>
-      <c r="T4" s="1" t="n">
-        <v>123456</v>
-      </c>
-      <c r="V4" s="1" t="inlineStr">
-        <is>
-          <t>august</t>
-        </is>
-      </c>
-      <c r="W4" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" s="1" t="n">
-        <v>20103</v>
-      </c>
-      <c r="Y4" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Z4" s="1" t="inlineStr">
-        <is>
-          <t>参数错误：参数不能为空</t>
-        </is>
-      </c>
-      <c r="AA4" s="0" t="inlineStr">
-        <is>
-          <t>passed</t>
+          <t>{"retCode": "soap:Server", "retInfo": "手机号码错误"}</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="N4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>july401@</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>#phone#</t>
+        </is>
+      </c>
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
+          <t>0.0.0.0</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t>soap:Server</t>
+        </is>
+      </c>
+      <c r="S4" s="1" t="inlineStr">
+        <is>
+          <t>手机号码错误</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="5" s="1">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>register</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t>注册失败，密码为空</t>
-        </is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="C5" s="1">
+        <f>"注册失败，"&amp;S5</f>
+        <v/>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t>register</t>
+          <t>userRegister</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
@@ -10192,66 +10119,69 @@
       </c>
       <c r="G5" s="8" t="inlineStr">
         <is>
-          <t>/member/register</t>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
         </is>
       </c>
       <c r="H5" s="1" t="inlineStr">
         <is>
-          <t>{"mobilephone": "13912541272", "regname": "september"}</t>
+          <t>{"verify_code": "#verify_code#", "channel_id": "1", "pwd": "july401@", "mobile": "#phone#", "ip": "0.0.0.0"}</t>
         </is>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>{"status": 0, "code": "20103", "data": null, "msg": "参数错误：参数不能为空"}</t>
-        </is>
-      </c>
-      <c r="J5" s="1" t="n">
-        <v>13912541272</v>
-      </c>
-      <c r="V5" s="1" t="inlineStr">
-        <is>
-          <t>september</t>
-        </is>
-      </c>
-      <c r="W5" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" s="1" t="n">
-        <v>20103</v>
-      </c>
-      <c r="Y5" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Z5" s="1" t="inlineStr">
-        <is>
-          <t>参数错误：参数不能为空</t>
-        </is>
-      </c>
-      <c r="AA5" s="0" t="inlineStr">
-        <is>
-          <t>passed</t>
+          <t>{"retCode": "soap:Server", "retInfo": "user_id不能为空"}</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="inlineStr">
+        <is>
+          <t>#verify_code#</t>
+        </is>
+      </c>
+      <c r="N5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1" t="inlineStr">
+        <is>
+          <t>july401@</t>
+        </is>
+      </c>
+      <c r="P5" s="1" t="inlineStr">
+        <is>
+          <t>#phone#</t>
+        </is>
+      </c>
+      <c r="Q5" s="1" t="inlineStr">
+        <is>
+          <t>0.0.0.0</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="inlineStr">
+        <is>
+          <t>soap:Server</t>
+        </is>
+      </c>
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>user_id不能为空</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="6" s="1">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>register</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t>注册失败，密码长度小于6位</t>
-        </is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="C6" s="1">
+        <f>"注册失败，"&amp;S6</f>
+        <v/>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>register</t>
+          <t>userRegister</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
@@ -10261,69 +10191,71 @@
       </c>
       <c r="G6" s="8" t="inlineStr">
         <is>
-          <t>/member/register</t>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
         </is>
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>{"mobilephone": "13912541273", "pwd": "123", "regname": "october"}</t>
+          <t>{"verify_code": "#verify_code#", "user_id": "july", "pwd": "july401@", "mobile": "#phone#", "ip": "0.0.0.0"}</t>
         </is>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>{"status": 0, "code": "20108", "data": null, "msg": "密码长度必须为6~18"}</t>
-        </is>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>13912541273</v>
-      </c>
-      <c r="T6" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="V6" s="1" t="inlineStr">
-        <is>
-          <t>october</t>
-        </is>
-      </c>
-      <c r="W6" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X6" s="1" t="n">
-        <v>20108</v>
-      </c>
-      <c r="Y6" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Z6" s="1" t="inlineStr">
-        <is>
-          <t>密码长度必须为6~18</t>
-        </is>
-      </c>
-      <c r="AA6" s="0" t="inlineStr">
-        <is>
-          <t>passed</t>
+          <t>{"retCode": "soap:Server", "retInfo": "短信模板ID错误"}</t>
+        </is>
+      </c>
+      <c r="L6" s="1" t="inlineStr">
+        <is>
+          <t>#verify_code#</t>
+        </is>
+      </c>
+      <c r="M6" s="1" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="O6" s="1" t="inlineStr">
+        <is>
+          <t>july401@</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
+        <is>
+          <t>#phone#</t>
+        </is>
+      </c>
+      <c r="Q6" s="1" t="inlineStr">
+        <is>
+          <t>0.0.0.0</t>
+        </is>
+      </c>
+      <c r="R6" s="1" t="inlineStr">
+        <is>
+          <t>soap:Server</t>
+        </is>
+      </c>
+      <c r="S6" s="1" t="inlineStr">
+        <is>
+          <t>短信模板ID错误</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="7" s="1">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>register</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>注册失败，密码长度大于18位</t>
-        </is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="C7" s="1">
+        <f>"注册失败，"&amp;S7</f>
+        <v/>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>register</t>
+          <t>userRegister</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
@@ -10333,71 +10265,69 @@
       </c>
       <c r="G7" s="8" t="inlineStr">
         <is>
-          <t>/member/register</t>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>{"mobilephone": "13912541274", "pwd": "12345678901234567890", "regname": "november"}</t>
+          <t>{"verify_code": "#verify_code#", "user_id": "july", "channel_id": "1", "mobile": "#phone#", "ip": "0.0.0.0"}</t>
         </is>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>{"status": 0, "code": "20108", "data": null, "msg": "密码长度必须为6~18"}</t>
-        </is>
-      </c>
-      <c r="J7" s="1" t="n">
-        <v>13912541274</v>
-      </c>
-      <c r="T7" s="12" t="inlineStr">
-        <is>
-          <t>12345678901234567890</t>
-        </is>
-      </c>
-      <c r="V7" s="1" t="inlineStr">
-        <is>
-          <t>november</t>
-        </is>
-      </c>
-      <c r="W7" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" s="1" t="n">
-        <v>20108</v>
-      </c>
-      <c r="Y7" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Z7" s="1" t="inlineStr">
-        <is>
-          <t>密码长度必须为6~18</t>
-        </is>
-      </c>
-      <c r="AA7" s="0" t="inlineStr">
-        <is>
-          <t>passed</t>
+          <t>{"retCode": "soap:Server", "retInfo": "密码不能为空"}</t>
+        </is>
+      </c>
+      <c r="L7" s="1" t="inlineStr">
+        <is>
+          <t>#verify_code#</t>
+        </is>
+      </c>
+      <c r="M7" s="1" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1" t="inlineStr">
+        <is>
+          <t>#phone#</t>
+        </is>
+      </c>
+      <c r="Q7" s="1" t="inlineStr">
+        <is>
+          <t>0.0.0.0</t>
+        </is>
+      </c>
+      <c r="R7" s="1" t="inlineStr">
+        <is>
+          <t>soap:Server</t>
+        </is>
+      </c>
+      <c r="S7" s="0" t="inlineStr">
+        <is>
+          <t>密码不能为空</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="8" s="1">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>register</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>注册失败，手机格式不正确</t>
-        </is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="C8" s="1">
+        <f>"注册失败，"&amp;S8</f>
+        <v/>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>register</t>
+          <t>userRegister</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
@@ -10407,69 +10337,69 @@
       </c>
       <c r="G8" s="8" t="inlineStr">
         <is>
-          <t>/member/register</t>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
         </is>
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>{"mobilephone": "175", "pwd": "123456", "regname": "december"}</t>
+          <t>{"verify_code": "#verify_code#", "user_id": "july", "channel_id": "1", "pwd": "july401@", "ip": "0.0.0.0"}</t>
         </is>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>{"status": 0, "code": "20109", "data": null, "msg": "手机号码格式不正确"}</t>
-        </is>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="T8" s="1" t="n">
-        <v>123456</v>
-      </c>
-      <c r="V8" s="1" t="inlineStr">
-        <is>
-          <t>december</t>
-        </is>
-      </c>
-      <c r="W8" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" s="1" t="n">
-        <v>20109</v>
-      </c>
-      <c r="Y8" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Z8" s="1" t="inlineStr">
-        <is>
-          <t>手机号码格式不正确</t>
-        </is>
-      </c>
-      <c r="AA8" s="0" t="inlineStr">
-        <is>
-          <t>passed</t>
+          <t>{"retCode": "soap:Server", "retInfo": "手机号码错误"}</t>
+        </is>
+      </c>
+      <c r="L8" s="1" t="inlineStr">
+        <is>
+          <t>#verify_code#</t>
+        </is>
+      </c>
+      <c r="M8" s="1" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1" t="inlineStr">
+        <is>
+          <t>july401@</t>
+        </is>
+      </c>
+      <c r="Q8" s="1" t="inlineStr">
+        <is>
+          <t>0.0.0.0</t>
+        </is>
+      </c>
+      <c r="R8" s="1" t="inlineStr">
+        <is>
+          <t>soap:Server</t>
+        </is>
+      </c>
+      <c r="S8" s="1" t="inlineStr">
+        <is>
+          <t>手机号码错误</t>
         </is>
       </c>
     </row>
     <row customFormat="1" r="9" s="1">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>register</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t>注册失败，手机号码已被注册</t>
-        </is>
+          <t>userRegister</t>
+        </is>
+      </c>
+      <c r="C9" s="1">
+        <f>"注册失败，"&amp;S9</f>
+        <v/>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>register</t>
+          <t>userRegister</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
@@ -10479,73 +10409,60 @@
       </c>
       <c r="G9" s="8" t="inlineStr">
         <is>
-          <t>/member/register</t>
+          <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
         </is>
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>{"mobilephone": "#phone#", "pwd": "#pwd#", "regname": "january"}</t>
+          <t>{"verify_code": "#verify_code#", "user_id": "july", "channel_id": "1", "pwd": "july401@", "mobile": "#phone#"}</t>
         </is>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>{"status": 0, "code": "20110", "data": null, "msg": "手机号码已被注册"}</t>
-        </is>
-      </c>
-      <c r="J9" s="1" t="inlineStr">
+          <t>{"retCode": "soap:Server", "retInfo": "ip为空"}</t>
+        </is>
+      </c>
+      <c r="L9" s="1" t="inlineStr">
+        <is>
+          <t>#verify_code#</t>
+        </is>
+      </c>
+      <c r="M9" s="1" t="inlineStr">
+        <is>
+          <t>july</t>
+        </is>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1" t="inlineStr">
+        <is>
+          <t>july401@</t>
+        </is>
+      </c>
+      <c r="P9" s="1" t="inlineStr">
         <is>
           <t>#phone#</t>
         </is>
       </c>
-      <c r="T9" s="1" t="inlineStr">
-        <is>
-          <t>#pwd#</t>
-        </is>
-      </c>
-      <c r="V9" s="1" t="inlineStr">
-        <is>
-          <t>january</t>
-        </is>
-      </c>
-      <c r="W9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" s="1" t="n">
-        <v>20110</v>
-      </c>
-      <c r="Y9" s="1" t="inlineStr">
-        <is>
-          <t>null</t>
-        </is>
-      </c>
-      <c r="Z9" s="1" t="inlineStr">
-        <is>
-          <t>手机号码已被注册</t>
-        </is>
-      </c>
-      <c r="AA9" s="0" t="inlineStr">
-        <is>
-          <t>passed</t>
+      <c r="R9" s="1" t="inlineStr">
+        <is>
+          <t>soap:Server</t>
+        </is>
+      </c>
+      <c r="S9" s="0" t="inlineStr">
+        <is>
+          <t>ip为空</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="/member/register" ref="G2" r:id="rId1"/>
-    <hyperlink display="/member/register" ref="G3" r:id="rId2"/>
-    <hyperlink display="/member/register" ref="G4" r:id="rId3"/>
-    <hyperlink display="/member/register" ref="G5" r:id="rId4"/>
-    <hyperlink display="/member/register" ref="G6" r:id="rId5"/>
-    <hyperlink display="/member/register" ref="G7" r:id="rId6"/>
-    <hyperlink display="/member/register" ref="G8" r:id="rId7"/>
-    <hyperlink display="/member/register" ref="G9" r:id="rId8"/>
-  </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -11323,22 +11240,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/member/recharge" ref="G2" r:id="rId1"/>
-    <hyperlink display="/member/recharge" ref="G3" r:id="rId2"/>
-    <hyperlink display="/member/recharge" ref="G4" r:id="rId3"/>
-    <hyperlink display="/member/recharge" ref="G5" r:id="rId4"/>
-    <hyperlink display="/member/recharge" ref="G6" r:id="rId5"/>
-    <hyperlink display="/member/recharge" ref="G7" r:id="rId6"/>
-    <hyperlink display="/member/recharge" ref="G8" r:id="rId7"/>
-    <hyperlink display="/member/recharge" ref="G9" r:id="rId8"/>
-    <hyperlink display="/member/recharge" ref="G10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/recharge" ref="G10" r:id="rId9"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -12186,23 +12103,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/member/withdraw" ref="G2" r:id="rId1"/>
-    <hyperlink display="/member/withdraw" ref="G3" r:id="rId2"/>
-    <hyperlink display="/member/withdraw" ref="G4" r:id="rId3"/>
-    <hyperlink display="/member/withdraw" ref="G5" r:id="rId4"/>
-    <hyperlink display="/member/withdraw" ref="G6" r:id="rId5"/>
-    <hyperlink display="/member/withdraw" ref="G7" r:id="rId6"/>
-    <hyperlink display="/member/withdraw" ref="G8" r:id="rId7"/>
-    <hyperlink display="/member/withdraw" ref="G9" r:id="rId8"/>
-    <hyperlink display="/member/withdraw" ref="G10" r:id="rId9"/>
-    <hyperlink display="/member/withdraw" ref="G11" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -14304,31 +14221,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/loan/bidLoan" ref="G2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId1"/>
-    <hyperlink display="/loan/bidLoan" ref="G3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
-    <hyperlink display="/loan/bidLoan" ref="G4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId3"/>
-    <hyperlink display="/loan/bidLoan" ref="G5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId4"/>
-    <hyperlink display="/loan/bidLoan" ref="G6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId5"/>
-    <hyperlink display="/loan/bidLoan" ref="G7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId6"/>
-    <hyperlink display="/loan/bidLoan" ref="G8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId7"/>
-    <hyperlink display="/loan/bidLoan" ref="G9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId8"/>
-    <hyperlink display="/loan/bidLoan" ref="G10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId9"/>
-    <hyperlink display="/loan/bidLoan" ref="G11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId10"/>
-    <hyperlink display="/loan/bidLoan" ref="G12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId11"/>
-    <hyperlink display="/loan/bidLoan" ref="G13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId12"/>
-    <hyperlink display="/loan/bidLoan" ref="G14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId13"/>
-    <hyperlink display="/loan/bidLoan" ref="G15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId14"/>
-    <hyperlink display="/loan/bidLoan" ref="G16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId15"/>
-    <hyperlink display="/loan/bidLoan" ref="G17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId16"/>
-    <hyperlink display="/loan/bidLoan" ref="G18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId17"/>
-    <hyperlink display="/loan/bidLoan" ref="G19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId18"/>
-    <hyperlink display="/loan/bidLoan" ref="G20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId19"/>
-    <hyperlink display="/loan/bidLoan" ref="G21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId20"/>
-    <hyperlink display="/loan/bidLoan" ref="G22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId21"/>
-    <hyperlink display="/loan/bidLoan" ref="G23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId22"/>
-    <hyperlink display="/loan/bidLoan" ref="G24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId23"/>
-    <hyperlink display="/loan/bidLoan" ref="G25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId24"/>
-    <hyperlink display="/loan/bidLoan" ref="G26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/bidLoan" ref="G26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/bidLoan" r:id="rId25"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -14336,7 +14253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -16810,32 +16727,32 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="/loan/add" ref="G2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId1"/>
-    <hyperlink display="/loan/add" ref="G3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
-    <hyperlink display="/loan/add" ref="G4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId3"/>
-    <hyperlink display="/loan/add" ref="G5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId4"/>
-    <hyperlink display="/loan/add" ref="G6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId5"/>
-    <hyperlink display="/loan/add" ref="G7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId6"/>
-    <hyperlink display="/loan/add" ref="G8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId7"/>
-    <hyperlink display="/loan/add" ref="G9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId8"/>
-    <hyperlink display="/loan/add" ref="G10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId9"/>
-    <hyperlink display="/loan/add" ref="G11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId10"/>
-    <hyperlink display="/loan/add" ref="G12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId11"/>
-    <hyperlink display="/loan/add" ref="G13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId12"/>
-    <hyperlink display="/loan/add" ref="G14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId13"/>
-    <hyperlink display="/loan/add" ref="G15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId14"/>
-    <hyperlink display="/loan/add" ref="G16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId15"/>
-    <hyperlink display="/loan/add" ref="G17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId16"/>
-    <hyperlink display="/loan/add" ref="G18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId17"/>
-    <hyperlink display="/loan/add" ref="G19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId18"/>
-    <hyperlink display="/loan/add" ref="G20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId19"/>
-    <hyperlink display="/loan/add" ref="G21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId20"/>
-    <hyperlink display="/loan/add" ref="G22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId21"/>
-    <hyperlink display="/loan/add" ref="G23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId22"/>
-    <hyperlink display="/loan/add" ref="G24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId23"/>
-    <hyperlink display="/loan/add" ref="G25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId24"/>
-    <hyperlink display="/loan/add" ref="G26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId25"/>
-    <hyperlink display="/loan/add" ref="G27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G21" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G22" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G23" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G24" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G25" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G26" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/loan/add" ref="G27" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId26"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.699305555555556" right="0.699305555555556" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -16843,14 +16760,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -18289,25 +18206,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 1}" ref="H2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId1"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 2}" ref="H3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 3}" ref="H4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId3"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 4}" ref="H5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId4"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 5}" ref="H6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId5"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 6}" ref="H7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId6"/>
-    <hyperlink display="{&quot;status&quot;: 1}" ref="H8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId7"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;}" ref="H9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId8"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 12}" ref="H10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId9"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: -1}" ref="H11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId10"/>
-    <hyperlink display="{&quot;id&quot;: 999999, &quot;status&quot;: 1}" ref="H12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId11"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 6}" ref="H13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId12"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 8}" ref="H14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId13"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 9}" ref="H15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId14"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 10}" ref="H16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId15"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 7}" ref="H17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId16"/>
-    <hyperlink display="{&quot;id&quot;: &quot;abc&quot;, &quot;status&quot;: 1}" ref="H18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId17"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: &quot;abc&quot;}" ref="H19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId18"/>
-    <hyperlink display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 5.5}" ref="H20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 1}" ref="H2" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 2}" ref="H3" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 3}" ref="H4" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 4}" ref="H5" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 5}" ref="H6" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 6}" ref="H7" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;status&quot;: 1}" ref="H8" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;}" ref="H9" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 12}" ref="H10" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: -1}" ref="H11" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: 999999, &quot;status&quot;: 1}" ref="H12" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 6}" ref="H13" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 8}" ref="H14" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 9}" ref="H15" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 10}" ref="H16" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 7}" ref="H17" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;abc&quot;, &quot;status&quot;: 1}" ref="H18" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: &quot;abc&quot;}" ref="H19" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="{&quot;id&quot;: &quot;#loanId#&quot;, &quot;status&quot;: 5.5}" ref="H20" tooltip="http://test.lemonban.com/futureloan/mvc/api/member/add" r:id="rId19"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/package_401/data/api_test.xlsx
+++ b/package_401/data/api_test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12615" windowWidth="28800"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12615" windowWidth="28245"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -52,7 +52,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -66,7 +66,15 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -75,7 +83,7 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -88,7 +96,44 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -105,29 +150,6 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -149,32 +171,10 @@
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -199,139 +199,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,7 +229,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +301,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,13 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,28 +393,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,16 +457,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,15 +490,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -498,10 +498,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="11" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="6" fillId="21" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -510,16 +510,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
@@ -531,112 +531,112 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="17" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="12" fontId="0" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="34" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="8" fillId="0" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="2" fillId="7" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="27" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="6" fillId="7" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="27" fontId="15" numFmtId="0">
+    <xf applyAlignment="1" borderId="5" fillId="16" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="24" fontId="13" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="10" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="9" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="18" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="34" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="33" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7476,8 +7476,8 @@
   </sheetPr>
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -7601,7 +7601,7 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>SELECT Fverify_code from sms_db_#dbno#.t_mvcode_info_#tableno# where Fmobile_no = #mobile#</t>
+          <t>SELECT Fverify_code from sms_db_#dbno#.t_mvcode_info_#tableno# where Fmobile_no = #phone#</t>
         </is>
       </c>
       <c r="H2" s="6" t="inlineStr">
@@ -7848,14 +7848,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomRight" state="frozen" topLeftCell="D9" xSplit="3" ySplit="8"/>
       <selection activeCell="A1" sqref="A1"/>
       <selection activeCell="A1" pane="topRight" sqref="A1"/>
       <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="C16" pane="bottomRight" sqref="C16"/>
+      <selection activeCell="M14" pane="bottomRight" sqref="M13:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7863,16 +7863,17 @@
     <col customWidth="1" max="2" min="2" style="2" width="13.75"/>
     <col customWidth="1" max="3" min="3" style="2" width="17.125"/>
     <col customWidth="1" max="4" min="4" style="2" width="13.75"/>
-    <col customWidth="1" max="7" min="7" style="2" width="18.25"/>
-    <col customWidth="1" max="8" min="8" style="2" width="6.5"/>
-    <col customWidth="1" max="9" min="9" style="2" width="7.5"/>
-    <col customWidth="1" max="10" min="10" style="2" width="10.375"/>
-    <col customWidth="1" max="11" min="11" style="2" width="9.375"/>
-    <col customWidth="1" max="12" min="12" style="2" width="14.875"/>
-    <col customWidth="1" max="14" min="14" style="2" width="11.5"/>
-    <col customWidth="1" max="16" min="16" style="2" width="12.625"/>
-    <col customWidth="1" max="18" min="18" style="2" width="12.625"/>
-    <col customWidth="1" max="19" min="19" style="2" width="15.125"/>
+    <col customWidth="1" hidden="1" max="8" min="8" style="2" width="18.25"/>
+    <col customWidth="1" hidden="1" max="9" min="9" style="2" width="6.5"/>
+    <col customWidth="1" hidden="1" max="10" min="10" style="2" width="7.5"/>
+    <col customWidth="1" max="11" min="11" style="2" width="10.375"/>
+    <col customWidth="1" max="12" min="12" style="2" width="9.375"/>
+    <col customWidth="1" max="13" min="13" style="2" width="14.875"/>
+    <col customWidth="1" max="14" min="14" style="2" width="13.75"/>
+    <col customWidth="1" max="15" min="15" style="2" width="11.5"/>
+    <col customWidth="1" max="17" min="17" style="2" width="12.625"/>
+    <col customWidth="1" max="19" min="19" style="2" width="12.625"/>
+    <col customWidth="1" max="20" min="20" style="2" width="15.125"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1">
@@ -7903,75 +7904,80 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>checksql</t>
+          <t>preSql</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>checkSql</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>client_ip</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>tmpl_id</t>
         </is>
       </c>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>verify_code</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>user_id</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>channel_id</t>
         </is>
       </c>
-      <c r="O1" s="4" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>pwd</t>
         </is>
       </c>
-      <c r="P1" s="4" t="inlineStr">
+      <c r="Q1" s="4" t="inlineStr">
         <is>
           <t>mobile</t>
         </is>
       </c>
-      <c r="Q1" s="4" t="inlineStr">
+      <c r="R1" s="4" t="inlineStr">
         <is>
           <t>ip</t>
         </is>
       </c>
-      <c r="R1" s="5" t="inlineStr">
+      <c r="S1" s="5" t="inlineStr">
         <is>
           <t>retCode</t>
         </is>
       </c>
-      <c r="S1" s="5" t="inlineStr">
+      <c r="T1" s="5" t="inlineStr">
         <is>
           <t>retInfo</t>
         </is>
       </c>
-      <c r="T1" s="0" t="inlineStr">
+      <c r="U1" s="0" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -8001,49 +8007,49 @@
           <t>post</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>SELECT Fverify_code from t_mvcode_info_#tableno# where Fmobile_no = #mobile#</t>
-        </is>
-      </c>
-      <c r="G2" s="6" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>SELECT Fverify_code from sms_db_#dbno#.t_mvcode_info_#tableno# where Fmobile_no = #mobile#</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="inlineStr">
         <is>
           <t>/sms-service-war-1.0/ws/smsFacade.ws?wsdl</t>
         </is>
       </c>
-      <c r="H2" s="7" t="inlineStr">
-        <is>
-          <t>{"client_ip": "0.0.0.0", "tmpl_id": "1", "mobile": "#phone#"}</t>
-        </is>
-      </c>
       <c r="I2" s="7" t="inlineStr">
         <is>
+          <t>{"client_ip": "0.0.0.0", "tmpl_id": "1", "mobile": "#unRegPhone#"}</t>
+        </is>
+      </c>
+      <c r="J2" s="7" t="inlineStr">
+        <is>
           <t>{"retCode": "0", "retInfo": "ok"}</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>0.0.0.0</t>
         </is>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="L2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="1" t="inlineStr">
-        <is>
-          <t>#phone#</t>
-        </is>
-      </c>
-      <c r="Q2" s="0" t="n"/>
-      <c r="R2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="1" t="inlineStr">
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>#unRegPhone#</t>
+        </is>
+      </c>
+      <c r="R2" s="0" t="n"/>
+      <c r="S2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
       </c>
-      <c r="T2" s="0" t="inlineStr">
+      <c r="U2" s="0" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -8073,60 +8079,70 @@
           <t>post</t>
         </is>
       </c>
-      <c r="G3" s="6" t="inlineStr">
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>SELECT Fverify_code as verify_code from sms_db_#dbno#.t_mvcode_info_#tableno# where Fmobile_no = #mobile#;</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>SELECT Fuid as user_id from user_db.t_user_info where fuser_id = #user_id#</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="inlineStr">
         <is>
           <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
         </is>
       </c>
-      <c r="H3" s="7" t="inlineStr">
-        <is>
-          <t>{"verify_code": "#verify_code#", "user_id": "july", "channel_id": "1", "pwd": "july401@", "mobile": "#phone#", "ip": "0.0.0.0"}</t>
-        </is>
-      </c>
       <c r="I3" s="7" t="inlineStr">
         <is>
+          <t>{"verify_code": "#verify_code#", "user_id": "july#randomNo#", "channel_id": "1", "pwd": "july401@", "mobile": "#unRegPhone#", "ip": "0.0.0.0"}</t>
+        </is>
+      </c>
+      <c r="J3" s="7" t="inlineStr">
+        <is>
           <t>{"retCode": "0", "retInfo": "ok"}</t>
         </is>
       </c>
-      <c r="L3" s="1" t="inlineStr">
+      <c r="M3" s="1" t="inlineStr">
         <is>
           <t>#verify_code#</t>
         </is>
       </c>
-      <c r="M3" s="1" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="N3" s="1" t="n">
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>july#randomNo#</t>
+        </is>
+      </c>
+      <c r="O3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O3" s="1" t="inlineStr">
+      <c r="P3" s="1" t="inlineStr">
         <is>
           <t>july401@</t>
         </is>
       </c>
-      <c r="P3" s="1" t="inlineStr">
-        <is>
-          <t>#phone#</t>
-        </is>
-      </c>
       <c r="Q3" s="1" t="inlineStr">
         <is>
+          <t>#unRegPhone#</t>
+        </is>
+      </c>
+      <c r="R3" s="1" t="inlineStr">
+        <is>
           <t>0.0.0.0</t>
         </is>
       </c>
-      <c r="R3" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="1" t="inlineStr">
+      <c r="S3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
       </c>
-      <c r="T3" s="0" t="inlineStr">
-        <is>
-          <t>failed</t>
+      <c r="U3" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -8140,7 +8156,7 @@
         </is>
       </c>
       <c r="C4" s="1">
-        <f>"注册失败，"&amp;S4</f>
+        <f>"注册失败，"&amp;T4</f>
         <v/>
       </c>
       <c r="D4" s="1" t="inlineStr">
@@ -8153,53 +8169,53 @@
           <t>post</t>
         </is>
       </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="H4" s="6" t="inlineStr">
         <is>
           <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
         </is>
       </c>
-      <c r="H4" s="7" t="inlineStr">
-        <is>
-          <t>{"user_id": "july", "channel_id": "1", "pwd": "july401@", "mobile": "#phone#", "ip": "0.0.0.0"}</t>
-        </is>
-      </c>
       <c r="I4" s="7" t="inlineStr">
         <is>
+          <t>{"user_id": "july#randomNo#", "channel_id": "1", "pwd": "july401@", "mobile": "#unRegPhone#", "ip": "0.0.0.0"}</t>
+        </is>
+      </c>
+      <c r="J4" s="7" t="inlineStr">
+        <is>
           <t>{"retCode": "19001", "retInfo": "验证码错误"}</t>
         </is>
       </c>
-      <c r="M4" s="1" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="N4" s="1" t="n">
+      <c r="N4" s="1" t="inlineStr">
+        <is>
+          <t>july#randomNo#</t>
+        </is>
+      </c>
+      <c r="O4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O4" s="1" t="inlineStr">
+      <c r="P4" s="1" t="inlineStr">
         <is>
           <t>july401@</t>
         </is>
       </c>
-      <c r="P4" s="1" t="inlineStr">
-        <is>
-          <t>#phone#</t>
-        </is>
-      </c>
       <c r="Q4" s="1" t="inlineStr">
         <is>
+          <t>#unRegPhone#</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
           <t>0.0.0.0</t>
         </is>
       </c>
-      <c r="R4" s="1" t="n">
+      <c r="S4" s="1" t="n">
         <v>19001</v>
       </c>
-      <c r="S4" s="1" t="inlineStr">
+      <c r="T4" s="1" t="inlineStr">
         <is>
           <t>验证码错误</t>
         </is>
       </c>
-      <c r="T4" s="0" t="inlineStr">
+      <c r="U4" s="0" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -8215,7 +8231,7 @@
         </is>
       </c>
       <c r="C5" s="1">
-        <f>"注册失败，"&amp;S5</f>
+        <f>"注册失败，"&amp;T5</f>
         <v/>
       </c>
       <c r="D5" s="1" t="inlineStr">
@@ -8228,53 +8244,53 @@
           <t>post</t>
         </is>
       </c>
-      <c r="G5" s="6" t="inlineStr">
+      <c r="H5" s="6" t="inlineStr">
         <is>
           <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
         </is>
       </c>
-      <c r="H5" s="7" t="inlineStr">
-        <is>
-          <t>{"verify_code": "#verify_code#", "channel_id": "1", "pwd": "july401@", "mobile": "#phone#", "ip": "0.0.0.0"}</t>
-        </is>
-      </c>
       <c r="I5" s="7" t="inlineStr">
         <is>
+          <t>{"verify_code": "#verify_code#", "channel_id": "1", "pwd": "july401@", "mobile": "#unRegPhone#", "ip": "0.0.0.0"}</t>
+        </is>
+      </c>
+      <c r="J5" s="7" t="inlineStr">
+        <is>
           <t>{"retCode": "19001", "retInfo": "用户名错误"}</t>
         </is>
       </c>
-      <c r="L5" s="1" t="inlineStr">
+      <c r="M5" s="1" t="inlineStr">
         <is>
           <t>#verify_code#</t>
         </is>
       </c>
-      <c r="N5" s="1" t="n">
+      <c r="O5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O5" s="1" t="inlineStr">
+      <c r="P5" s="1" t="inlineStr">
         <is>
           <t>july401@</t>
         </is>
       </c>
-      <c r="P5" s="1" t="inlineStr">
-        <is>
-          <t>#phone#</t>
-        </is>
-      </c>
       <c r="Q5" s="1" t="inlineStr">
         <is>
+          <t>#unRegPhone#</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="inlineStr">
+        <is>
           <t>0.0.0.0</t>
         </is>
       </c>
-      <c r="R5" s="1" t="n">
+      <c r="S5" s="1" t="n">
         <v>19001</v>
       </c>
-      <c r="S5" s="1" t="inlineStr">
+      <c r="T5" s="1" t="inlineStr">
         <is>
           <t>用户名错误</t>
         </is>
       </c>
-      <c r="T5" s="0" t="inlineStr">
+      <c r="U5" s="0" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -8290,7 +8306,7 @@
         </is>
       </c>
       <c r="C6" s="1">
-        <f>"注册失败，"&amp;S6</f>
+        <f>"注册失败，"&amp;T6</f>
         <v/>
       </c>
       <c r="D6" s="1" t="inlineStr">
@@ -8303,55 +8319,56 @@
           <t>post</t>
         </is>
       </c>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="F6" s="0" t="n"/>
+      <c r="H6" s="6" t="inlineStr">
         <is>
           <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
         </is>
       </c>
-      <c r="H6" s="7" t="inlineStr">
-        <is>
-          <t>{"verify_code": "#verify_code#", "user_id": "july", "pwd": "july401@", "mobile": "#phone#", "ip": "0.0.0.0"}</t>
-        </is>
-      </c>
       <c r="I6" s="7" t="inlineStr">
         <is>
+          <t>{"verify_code": "#verify_code#", "user_id": "july#randomNo#", "pwd": "july401@", "mobile": "#unRegPhone#", "ip": "0.0.0.0"}</t>
+        </is>
+      </c>
+      <c r="J6" s="7" t="inlineStr">
+        <is>
           <t>{"retCode": "19001", "retInfo": "渠道信息错误"}</t>
         </is>
       </c>
-      <c r="L6" s="1" t="inlineStr">
+      <c r="M6" s="1" t="inlineStr">
         <is>
           <t>#verify_code#</t>
         </is>
       </c>
-      <c r="M6" s="1" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="O6" s="1" t="inlineStr">
+      <c r="N6" s="1" t="inlineStr">
+        <is>
+          <t>july#randomNo#</t>
+        </is>
+      </c>
+      <c r="P6" s="1" t="inlineStr">
         <is>
           <t>july401@</t>
         </is>
       </c>
-      <c r="P6" s="1" t="inlineStr">
-        <is>
-          <t>#phone#</t>
-        </is>
-      </c>
       <c r="Q6" s="1" t="inlineStr">
         <is>
+          <t>#unRegPhone#</t>
+        </is>
+      </c>
+      <c r="R6" s="1" t="inlineStr">
+        <is>
           <t>0.0.0.0</t>
         </is>
       </c>
-      <c r="R6" s="1" t="n">
+      <c r="S6" s="1" t="n">
         <v>19001</v>
       </c>
-      <c r="S6" s="1" t="inlineStr">
+      <c r="T6" s="1" t="inlineStr">
         <is>
           <t>渠道信息错误</t>
         </is>
       </c>
-      <c r="T6" s="0" t="inlineStr">
+      <c r="U6" s="0" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -8367,7 +8384,7 @@
         </is>
       </c>
       <c r="C7" s="1">
-        <f>"注册失败，"&amp;S7</f>
+        <f>"注册失败，"&amp;T7</f>
         <v/>
       </c>
       <c r="D7" s="1" t="inlineStr">
@@ -8380,55 +8397,56 @@
           <t>post</t>
         </is>
       </c>
-      <c r="G7" s="6" t="inlineStr">
+      <c r="F7" s="0" t="n"/>
+      <c r="H7" s="6" t="inlineStr">
         <is>
           <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
         </is>
       </c>
-      <c r="H7" s="7" t="inlineStr">
-        <is>
-          <t>{"verify_code": "#verify_code#", "user_id": "july", "channel_id": "1", "mobile": "#phone#", "ip": "0.0.0.0"}</t>
-        </is>
-      </c>
       <c r="I7" s="7" t="inlineStr">
         <is>
+          <t>{"verify_code": "#verify_code#", "user_id": "july#randomNo#", "channel_id": "1", "mobile": "#unRegPhone#", "ip": "0.0.0.0"}</t>
+        </is>
+      </c>
+      <c r="J7" s="7" t="inlineStr">
+        <is>
           <t>{"retCode": "19001", "retInfo": "用户UID错误"}</t>
         </is>
       </c>
-      <c r="L7" s="1" t="inlineStr">
+      <c r="M7" s="1" t="inlineStr">
         <is>
           <t>#verify_code#</t>
         </is>
       </c>
-      <c r="M7" s="1" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="N7" s="1" t="n">
+      <c r="N7" s="1" t="inlineStr">
+        <is>
+          <t>july#randomNo#</t>
+        </is>
+      </c>
+      <c r="O7" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P7" s="1" t="inlineStr">
-        <is>
-          <t>#phone#</t>
-        </is>
-      </c>
       <c r="Q7" s="1" t="inlineStr">
         <is>
+          <t>#unRegPhone#</t>
+        </is>
+      </c>
+      <c r="R7" s="1" t="inlineStr">
+        <is>
           <t>0.0.0.0</t>
         </is>
       </c>
-      <c r="R7" s="1" t="n">
+      <c r="S7" s="1" t="n">
         <v>19001</v>
       </c>
-      <c r="S7" s="0" t="inlineStr">
+      <c r="T7" s="0" t="inlineStr">
         <is>
           <t>用户UID错误</t>
         </is>
       </c>
-      <c r="T7" s="0" t="inlineStr">
-        <is>
-          <t>failed</t>
+      <c r="U7" s="0" t="inlineStr">
+        <is>
+          <t>passed</t>
         </is>
       </c>
     </row>
@@ -8442,7 +8460,7 @@
         </is>
       </c>
       <c r="C8" s="1">
-        <f>"注册失败，"&amp;S8</f>
+        <f>"注册失败，"&amp;T8</f>
         <v/>
       </c>
       <c r="D8" s="1" t="inlineStr">
@@ -8455,53 +8473,54 @@
           <t>post</t>
         </is>
       </c>
-      <c r="G8" s="6" t="inlineStr">
+      <c r="F8" s="0" t="n"/>
+      <c r="H8" s="6" t="inlineStr">
         <is>
           <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr">
-        <is>
-          <t>{"verify_code": "#verify_code#", "user_id": "july", "channel_id": "1", "pwd": "july401@", "ip": "0.0.0.0"}</t>
-        </is>
-      </c>
       <c r="I8" s="7" t="inlineStr">
         <is>
+          <t>{"verify_code": "#verify_code#", "user_id": "july#randomNo#", "channel_id": "1", "pwd": "july401@", "ip": "0.0.0.0"}</t>
+        </is>
+      </c>
+      <c r="J8" s="7" t="inlineStr">
+        <is>
           <t>{"retCode": "19001", "retInfo": "手机号错误"}</t>
         </is>
       </c>
-      <c r="L8" s="1" t="inlineStr">
+      <c r="M8" s="1" t="inlineStr">
         <is>
           <t>#verify_code#</t>
         </is>
       </c>
-      <c r="M8" s="1" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="N8" s="1" t="n">
+      <c r="N8" s="1" t="inlineStr">
+        <is>
+          <t>july#randomNo#</t>
+        </is>
+      </c>
+      <c r="O8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O8" s="1" t="inlineStr">
+      <c r="P8" s="1" t="inlineStr">
         <is>
           <t>july401@</t>
         </is>
       </c>
-      <c r="Q8" s="1" t="inlineStr">
+      <c r="R8" s="1" t="inlineStr">
         <is>
           <t>0.0.0.0</t>
         </is>
       </c>
-      <c r="R8" s="1" t="n">
+      <c r="S8" s="1" t="n">
         <v>19001</v>
       </c>
-      <c r="S8" s="1" t="inlineStr">
+      <c r="T8" s="1" t="inlineStr">
         <is>
           <t>手机号错误</t>
         </is>
       </c>
-      <c r="T8" s="0" t="inlineStr">
+      <c r="U8" s="0" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -8517,7 +8536,7 @@
         </is>
       </c>
       <c r="C9" s="1">
-        <f>"注册失败，"&amp;S9</f>
+        <f>"注册失败，"&amp;T9</f>
         <v/>
       </c>
       <c r="D9" s="1" t="inlineStr">
@@ -8530,53 +8549,54 @@
           <t>post</t>
         </is>
       </c>
-      <c r="G9" s="6" t="inlineStr">
+      <c r="F9" s="0" t="n"/>
+      <c r="H9" s="6" t="inlineStr">
         <is>
           <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
         </is>
       </c>
-      <c r="H9" s="7" t="inlineStr">
-        <is>
-          <t>{"verify_code": "#verify_code#", "user_id": "july", "channel_id": "1", "pwd": "july401@", "mobile": "#phone#"}</t>
-        </is>
-      </c>
       <c r="I9" s="7" t="inlineStr">
         <is>
+          <t>{"verify_code": "#verify_code#", "user_id": "july#randomNo#", "channel_id": "1", "pwd": "july401@", "mobile": "#unRegPhone#"}</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr">
+        <is>
           <t>{"retCode": "19001", "retInfo": "IP地址错误"}</t>
         </is>
       </c>
-      <c r="L9" s="1" t="inlineStr">
+      <c r="M9" s="1" t="inlineStr">
         <is>
           <t>#verify_code#</t>
         </is>
       </c>
-      <c r="M9" s="1" t="inlineStr">
-        <is>
-          <t>july</t>
-        </is>
-      </c>
-      <c r="N9" s="1" t="n">
+      <c r="N9" s="1" t="inlineStr">
+        <is>
+          <t>july#randomNo#</t>
+        </is>
+      </c>
+      <c r="O9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O9" s="1" t="inlineStr">
+      <c r="P9" s="1" t="inlineStr">
         <is>
           <t>july401@</t>
         </is>
       </c>
-      <c r="P9" s="1" t="inlineStr">
-        <is>
-          <t>#phone#</t>
-        </is>
-      </c>
-      <c r="R9" s="1" t="n">
+      <c r="Q9" s="1" t="inlineStr">
+        <is>
+          <t>#unRegPhone#</t>
+        </is>
+      </c>
+      <c r="S9" s="1" t="n">
         <v>19001</v>
       </c>
-      <c r="S9" s="0" t="inlineStr">
+      <c r="T9" s="0" t="inlineStr">
         <is>
           <t>IP地址错误</t>
         </is>
       </c>
-      <c r="T9" s="0" t="inlineStr">
+      <c r="U9" s="0" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -8593,19 +8613,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col customWidth="1" max="10" min="10" style="2" width="12.625"/>
-    <col customWidth="1" max="11" min="11" style="2" width="10.375"/>
-    <col customWidth="1" max="12" min="12" style="2" width="20.375"/>
-    <col customWidth="1" max="13" min="13" style="2" width="12.625"/>
-    <col customWidth="1" max="14" min="14" style="2" width="15.125"/>
+    <col customWidth="1" max="11" min="11" style="2" width="12.625"/>
+    <col customWidth="1" max="12" min="12" style="2" width="10.375"/>
+    <col customWidth="1" max="13" min="13" style="2" width="20.375"/>
+    <col customWidth="1" max="14" min="14" style="2" width="12.625"/>
+    <col customWidth="1" max="15" min="15" style="2" width="15.125"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1">
@@ -8636,50 +8656,55 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>preSql</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>checksql</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>uid</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>true_name</t>
         </is>
       </c>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>cre_id</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="N1" s="5" t="inlineStr">
         <is>
           <t>retCode</t>
         </is>
       </c>
-      <c r="N1" s="5" t="inlineStr">
+      <c r="O1" s="5" t="inlineStr">
         <is>
           <t>retInfo</t>
         </is>
       </c>
-      <c r="P1" s="0" t="inlineStr">
+      <c r="Q1" s="0" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -8709,53 +8734,62 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>SELECT * FROM `t_user_info` WHERE Fuser_id = 'july' LIMIT 1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl</t>
         </is>
       </c>
-      <c r="H2" s="0" t="inlineStr">
+      <c r="I2" s="0" t="inlineStr">
         <is>
           <t>{"uid": "#uid#", "true_name": "鞠大神", "cre_id": "321283199501245618"}</t>
         </is>
       </c>
-      <c r="I2" s="1" t="inlineStr">
+      <c r="J2" s="1" t="inlineStr">
         <is>
           <t>{"retCode": "0", "retInfo": "ok"}</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>#uid#</t>
         </is>
       </c>
-      <c r="K2" s="1" t="inlineStr">
+      <c r="L2" s="1" t="inlineStr">
         <is>
           <t>鞠大神</t>
         </is>
       </c>
-      <c r="L2" s="9" t="inlineStr">
+      <c r="M2" s="9" t="inlineStr">
         <is>
           <t>321283199501245618</t>
         </is>
       </c>
-      <c r="M2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1" t="inlineStr">
+      <c r="N2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
         <is>
           <t>ok</t>
         </is>
       </c>
+    </row>
+    <row r="3">
+      <c r="F3" s="1" t="n"/>
+    </row>
+    <row r="4">
+      <c r="F4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="F5" s="1" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" ref="G2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/finance-user_info-war-1.0/ws/financeUserInfoFacade.ws?wsdl" ref="H2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
@@ -8767,15 +8801,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AB11"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col customWidth="1" max="10" min="10" style="2" width="12.625"/>
+    <col customWidth="1" max="11" min="11" style="2" width="12.625"/>
   </cols>
   <sheetData>
     <row customFormat="1" r="1" s="1">
@@ -8806,110 +8840,115 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>preSql</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>checksql</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>request_data</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>expected_data</t>
         </is>
       </c>
-      <c r="J1" s="4" t="inlineStr">
+      <c r="K1" s="4" t="inlineStr">
         <is>
           <t>mobilephone</t>
         </is>
       </c>
-      <c r="K1" s="4" t="inlineStr">
+      <c r="L1" s="4" t="inlineStr">
         <is>
           <t>memberId</t>
         </is>
       </c>
-      <c r="L1" s="4" t="inlineStr">
+      <c r="M1" s="4" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="M1" s="4" t="inlineStr">
+      <c r="N1" s="4" t="inlineStr">
         <is>
           <t>loanRate</t>
         </is>
       </c>
-      <c r="N1" s="4" t="inlineStr">
+      <c r="O1" s="4" t="inlineStr">
         <is>
           <t>loanTerm</t>
         </is>
       </c>
-      <c r="O1" s="4" t="inlineStr">
+      <c r="P1" s="4" t="inlineStr">
         <is>
           <t>loanDateType</t>
         </is>
       </c>
-      <c r="P1" s="4" t="inlineStr">
+      <c r="Q1" s="4" t="inlineStr">
         <is>
           <t>repaymemtWay</t>
         </is>
       </c>
-      <c r="Q1" s="4" t="inlineStr">
+      <c r="R1" s="4" t="inlineStr">
         <is>
           <t>biddingDays</t>
         </is>
       </c>
-      <c r="R1" s="4" t="inlineStr">
+      <c r="S1" s="4" t="inlineStr">
         <is>
           <t>loanId</t>
         </is>
       </c>
-      <c r="S1" s="4" t="inlineStr">
+      <c r="T1" s="4" t="inlineStr">
         <is>
           <t>password</t>
         </is>
       </c>
-      <c r="T1" s="4" t="inlineStr">
+      <c r="U1" s="4" t="inlineStr">
         <is>
           <t>pwd</t>
         </is>
       </c>
-      <c r="U1" s="4" t="inlineStr">
+      <c r="V1" s="4" t="inlineStr">
         <is>
           <t>amount</t>
         </is>
       </c>
-      <c r="V1" s="4" t="inlineStr">
+      <c r="W1" s="4" t="inlineStr">
         <is>
           <t>regname</t>
         </is>
       </c>
-      <c r="W1" s="5" t="inlineStr">
+      <c r="X1" s="5" t="inlineStr">
         <is>
           <t>status</t>
         </is>
       </c>
-      <c r="X1" s="5" t="inlineStr">
+      <c r="Y1" s="5" t="inlineStr">
         <is>
           <t>code</t>
         </is>
       </c>
-      <c r="Y1" s="5" t="inlineStr">
+      <c r="Z1" s="5" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="Z1" s="5" t="inlineStr">
+      <c r="AA1" s="5" t="inlineStr">
         <is>
           <t>msg</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -8939,51 +8978,51 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F2" s="1" t="inlineStr">
+      <c r="G2" s="1" t="inlineStr">
         <is>
           <t>select leaveamount from member where mobilephone = #phone#</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="H2" s="0" t="inlineStr">
+      <c r="I2" s="0" t="inlineStr">
         <is>
           <t>{"mobilephone": "#phone#", "amount": 500}</t>
         </is>
       </c>
-      <c r="I2" s="0" t="inlineStr">
+      <c r="J2" s="0" t="inlineStr">
         <is>
           <t>{"status": 1, "code": "10001", "data": null, "msg": "成功"}</t>
         </is>
       </c>
-      <c r="J2" s="1" t="inlineStr">
+      <c r="K2" s="1" t="inlineStr">
         <is>
           <t>#phone#</t>
         </is>
       </c>
-      <c r="U2" s="1" t="n">
+      <c r="V2" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="W2" s="1" t="n">
+      <c r="X2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X2" s="1" t="n">
+      <c r="Y2" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="Y2" s="1" t="inlineStr">
+      <c r="Z2" s="1" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="Z2" s="1" t="inlineStr">
+      <c r="AA2" s="1" t="inlineStr">
         <is>
           <t>成功</t>
         </is>
       </c>
-      <c r="AA2" s="0" t="inlineStr">
+      <c r="AB2" s="0" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -9013,41 +9052,41 @@
           <t>get</t>
         </is>
       </c>
-      <c r="G3" s="3" t="inlineStr">
+      <c r="H3" s="3" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="H3" s="0" t="inlineStr">
+      <c r="I3" s="0" t="inlineStr">
         <is>
           <t>{"amount": 500}</t>
         </is>
       </c>
-      <c r="I3" s="0" t="inlineStr">
+      <c r="J3" s="0" t="inlineStr">
         <is>
           <t>{"status": 0, "code": "20103", "data": null, "msg": "参数错误：参数不能为空"}</t>
         </is>
       </c>
-      <c r="U3" s="1" t="n">
+      <c r="V3" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="W3" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="1" t="n">
         <v>20103</v>
       </c>
-      <c r="Y3" s="1" t="inlineStr">
+      <c r="Z3" s="1" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="Z3" s="1" t="inlineStr">
+      <c r="AA3" s="1" t="inlineStr">
         <is>
           <t>参数错误：参数不能为空</t>
         </is>
       </c>
-      <c r="AA3" s="0" t="inlineStr">
+      <c r="AB3" s="0" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -9077,46 +9116,46 @@
           <t>get</t>
         </is>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="H4" s="0" t="inlineStr">
+      <c r="I4" s="0" t="inlineStr">
         <is>
           <t>{"mobilephone": "#noRegPhone#", "amount": 500}</t>
         </is>
       </c>
-      <c r="I4" s="0" t="inlineStr">
+      <c r="J4" s="0" t="inlineStr">
         <is>
           <t>{"status": 1, "code": "20104", "data": null, "msg": "此手机号对应的会员不存在"}</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="K4" s="1" t="inlineStr">
         <is>
           <t>#noRegPhone#</t>
         </is>
       </c>
-      <c r="U4" s="1" t="n">
+      <c r="V4" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="W4" s="1" t="n">
+      <c r="X4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X4" s="1" t="n">
+      <c r="Y4" s="1" t="n">
         <v>20104</v>
       </c>
-      <c r="Y4" s="1" t="inlineStr">
+      <c r="Z4" s="1" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="Z4" s="1" t="inlineStr">
+      <c r="AA4" s="1" t="inlineStr">
         <is>
           <t>此手机号对应的会员不存在</t>
         </is>
       </c>
-      <c r="AA4" s="0" t="inlineStr">
+      <c r="AB4" s="0" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -9146,44 +9185,44 @@
           <t>get</t>
         </is>
       </c>
-      <c r="G5" s="3" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="H5" s="0" t="inlineStr">
+      <c r="I5" s="0" t="inlineStr">
         <is>
           <t>{"mobilephone": "123", "amount": 500}</t>
         </is>
       </c>
-      <c r="I5" s="0" t="inlineStr">
+      <c r="J5" s="0" t="inlineStr">
         <is>
           <t>{"status": 0, "code": "20109", "data": null, "msg": "手机号码格式不正确"}</t>
         </is>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="K5" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="U5" s="1" t="n">
+      <c r="V5" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="W5" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="X5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="1" t="n">
         <v>20109</v>
       </c>
-      <c r="Y5" s="1" t="inlineStr">
+      <c r="Z5" s="1" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="Z5" s="1" t="inlineStr">
+      <c r="AA5" s="1" t="inlineStr">
         <is>
           <t>手机号码格式不正确</t>
         </is>
       </c>
-      <c r="AA5" s="0" t="inlineStr">
+      <c r="AB5" s="0" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -9214,43 +9253,44 @@
         </is>
       </c>
       <c r="F6" s="0" t="n"/>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="G6" s="0" t="n"/>
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="H6" s="0" t="inlineStr">
+      <c r="I6" s="0" t="inlineStr">
         <is>
           <t>{"mobilephone": "#phone#"}</t>
         </is>
       </c>
-      <c r="I6" s="0" t="inlineStr">
+      <c r="J6" s="0" t="inlineStr">
         <is>
           <t>{"status": 0, "code": "20115", "data": null, "msg": "请输入金额"}</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="K6" s="1" t="inlineStr">
         <is>
           <t>#phone#</t>
         </is>
       </c>
-      <c r="W6" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1" t="n">
         <v>20115</v>
       </c>
-      <c r="Y6" s="1" t="inlineStr">
+      <c r="Z6" s="1" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="Z6" s="1" t="inlineStr">
+      <c r="AA6" s="1" t="inlineStr">
         <is>
           <t>请输入金额</t>
         </is>
       </c>
-      <c r="AA6" s="0" t="inlineStr">
+      <c r="AB6" s="0" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -9281,46 +9321,47 @@
         </is>
       </c>
       <c r="F7" s="0" t="n"/>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G7" s="0" t="n"/>
+      <c r="H7" s="3" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="H7" s="0" t="inlineStr">
+      <c r="I7" s="0" t="inlineStr">
         <is>
           <t>{"mobilephone": "#phone#", "amount": 500.123}</t>
         </is>
       </c>
-      <c r="I7" s="0" t="inlineStr">
+      <c r="J7" s="0" t="inlineStr">
         <is>
           <t>{"status": 0, "code": "20116", "data": null, "msg": "输入金额的金额小数不能超过两位"}</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="K7" s="1" t="inlineStr">
         <is>
           <t>#phone#</t>
         </is>
       </c>
-      <c r="U7" s="1" t="n">
+      <c r="V7" s="1" t="n">
         <v>500.123</v>
       </c>
-      <c r="W7" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="X7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="1" t="n">
         <v>20116</v>
       </c>
-      <c r="Y7" s="1" t="inlineStr">
+      <c r="Z7" s="1" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="Z7" s="1" t="inlineStr">
+      <c r="AA7" s="1" t="inlineStr">
         <is>
           <t>输入金额的金额小数不能超过两位</t>
         </is>
       </c>
-      <c r="AA7" s="0" t="inlineStr">
+      <c r="AB7" s="0" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -9351,46 +9392,47 @@
         </is>
       </c>
       <c r="F8" s="0" t="n"/>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G8" s="0" t="n"/>
+      <c r="H8" s="3" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="H8" s="0" t="inlineStr">
+      <c r="I8" s="0" t="inlineStr">
         <is>
           <t>{"mobilephone": "#phone#", "amount": -5}</t>
         </is>
       </c>
-      <c r="I8" s="0" t="inlineStr">
+      <c r="J8" s="0" t="inlineStr">
         <is>
           <t>{"status": 0, "code": "20117", "data": null, "msg": "请输入范围在0到50万之间的正数"}</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="K8" s="1" t="inlineStr">
         <is>
           <t>#phone#</t>
         </is>
       </c>
-      <c r="U8" s="1" t="n">
+      <c r="V8" s="1" t="n">
         <v>-5</v>
       </c>
-      <c r="W8" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="1" t="n">
         <v>20117</v>
       </c>
-      <c r="Y8" s="1" t="inlineStr">
+      <c r="Z8" s="1" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="Z8" s="1" t="inlineStr">
+      <c r="AA8" s="1" t="inlineStr">
         <is>
           <t>请输入范围在0到50万之间的正数</t>
         </is>
       </c>
-      <c r="AA8" s="0" t="inlineStr">
+      <c r="AB8" s="0" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -9421,46 +9463,47 @@
         </is>
       </c>
       <c r="F9" s="0" t="n"/>
-      <c r="G9" s="3" t="inlineStr">
+      <c r="G9" s="0" t="n"/>
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="H9" s="0" t="inlineStr">
+      <c r="I9" s="0" t="inlineStr">
         <is>
           <t>{"mobilephone": "#phone#", "amount": 500001}</t>
         </is>
       </c>
-      <c r="I9" s="0" t="inlineStr">
+      <c r="J9" s="0" t="inlineStr">
         <is>
           <t>{"status": 0, "code": "20117", "data": null, "msg": "请输入范围在0到50万之间的正数"}</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="K9" s="1" t="inlineStr">
         <is>
           <t>#phone#</t>
         </is>
       </c>
-      <c r="U9" s="1" t="n">
+      <c r="V9" s="1" t="n">
         <v>500001</v>
       </c>
-      <c r="W9" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="X9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1" t="n">
         <v>20117</v>
       </c>
-      <c r="Y9" s="1" t="inlineStr">
+      <c r="Z9" s="1" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="Z9" s="1" t="inlineStr">
+      <c r="AA9" s="1" t="inlineStr">
         <is>
           <t>请输入范围在0到50万之间的正数</t>
         </is>
       </c>
-      <c r="AA9" s="0" t="inlineStr">
+      <c r="AB9" s="0" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -9491,48 +9534,49 @@
         </is>
       </c>
       <c r="F10" s="0" t="n"/>
-      <c r="G10" s="3" t="inlineStr">
+      <c r="G10" s="0" t="n"/>
+      <c r="H10" s="3" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="H10" s="0" t="inlineStr">
+      <c r="I10" s="0" t="inlineStr">
         <is>
           <t>{"mobilephone": "#phone#", "amount": "abc"}</t>
         </is>
       </c>
-      <c r="I10" s="0" t="inlineStr">
+      <c r="J10" s="0" t="inlineStr">
         <is>
           <t>{"status": 0, "code": "20118", "data": null, "msg": "请输入数字"}</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="K10" s="1" t="inlineStr">
         <is>
           <t>#phone#</t>
         </is>
       </c>
-      <c r="U10" s="1" t="inlineStr">
+      <c r="V10" s="1" t="inlineStr">
         <is>
           <t>abc</t>
         </is>
       </c>
-      <c r="W10" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="X10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1" t="n">
         <v>20118</v>
       </c>
-      <c r="Y10" s="1" t="inlineStr">
+      <c r="Z10" s="1" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="Z10" s="1" t="inlineStr">
+      <c r="AA10" s="1" t="inlineStr">
         <is>
           <t>请输入数字</t>
         </is>
       </c>
-      <c r="AA10" s="0" t="inlineStr">
+      <c r="AB10" s="0" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -9563,46 +9607,47 @@
         </is>
       </c>
       <c r="F11" s="0" t="n"/>
-      <c r="G11" s="3" t="inlineStr">
+      <c r="G11" s="0" t="n"/>
+      <c r="H11" s="3" t="inlineStr">
         <is>
           <t>/member/withdraw</t>
         </is>
       </c>
-      <c r="H11" s="0" t="inlineStr">
+      <c r="I11" s="0" t="inlineStr">
         <is>
           <t>{"mobilephone": "#phone#", "amount": 400000}</t>
         </is>
       </c>
-      <c r="I11" s="0" t="inlineStr">
+      <c r="J11" s="0" t="inlineStr">
         <is>
           <t>{"status": 1, "code": "20119", "data": null, "msg": "余额不足，请修改提现额度"}</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="K11" s="1" t="inlineStr">
         <is>
           <t>#phone#</t>
         </is>
       </c>
-      <c r="U11" s="1" t="n">
+      <c r="V11" s="1" t="n">
         <v>400000</v>
       </c>
-      <c r="W11" s="1" t="n">
+      <c r="X11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="X11" s="1" t="n">
+      <c r="Y11" s="1" t="n">
         <v>20119</v>
       </c>
-      <c r="Y11" s="1" t="inlineStr">
+      <c r="Z11" s="1" t="inlineStr">
         <is>
           <t>null</t>
         </is>
       </c>
-      <c r="Z11" s="1" t="inlineStr">
+      <c r="AA11" s="1" t="inlineStr">
         <is>
           <t>余额不足，请修改提现额度</t>
         </is>
       </c>
-      <c r="AA11" s="0" t="inlineStr">
+      <c r="AB11" s="0" t="inlineStr">
         <is>
           <t>passed</t>
         </is>
@@ -9610,16 +9655,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G2" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G3" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G4" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G5" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G6" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G7" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G8" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G9" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G10" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="G11" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" display="/member/withdraw" ref="H11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/package_401/data/api_test.xlsx
+++ b/package_401/data/api_test.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12615" windowWidth="28245"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="1" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13200" windowWidth="28695"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -52,6 +52,36 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
       <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -59,15 +89,38 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -89,7 +142,7 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -119,62 +172,9 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -199,13 +199,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -223,13 +313,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -241,43 +355,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,67 +367,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,25 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,11 +393,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -441,6 +467,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -455,41 +490,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
@@ -498,10 +498,10 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="21" fontId="12" numFmtId="0">
+    <xf applyAlignment="1" borderId="1" fillId="12" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="165">
@@ -510,16 +510,16 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="166">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="8" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="167">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
@@ -531,112 +531,112 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="12" fontId="0" numFmtId="0">
+    <xf applyAlignment="1" borderId="6" fillId="23" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="22" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="22" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="30" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="34" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="33" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="10" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="26" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="16" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="7" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="7" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="16" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="24" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="23" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="30" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="10" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="15" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="14" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="4" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="4" fontId="3" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="3" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="4" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="3" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="7" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -7855,7 +7855,7 @@
       <selection activeCell="A1" sqref="A1"/>
       <selection activeCell="A1" pane="topRight" sqref="A1"/>
       <selection activeCell="A1" pane="bottomLeft" sqref="A1"/>
-      <selection activeCell="M14" pane="bottomRight" sqref="M13:M14"/>
+      <selection activeCell="L5" pane="bottomRight" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -8057,7 +8057,7 @@
     </row>
     <row customFormat="1" r="3" s="1">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
@@ -8086,7 +8086,7 @@
       </c>
       <c r="G3" s="1" t="inlineStr">
         <is>
-          <t>SELECT Fuid as user_id from user_db.t_user_info where fuser_id = #user_id#</t>
+          <t>SELECT Fuid as user_id from user_db.t_user_info where fuser_id = "#user_id#"</t>
         </is>
       </c>
       <c r="H3" s="6" t="inlineStr">
@@ -8148,7 +8148,7 @@
     </row>
     <row customFormat="1" r="4" s="1">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
     </row>
     <row customFormat="1" r="5" s="1">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
@@ -8298,7 +8298,7 @@
     </row>
     <row customFormat="1" r="6" s="1">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
@@ -8376,7 +8376,7 @@
     </row>
     <row customFormat="1" r="7" s="1">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
@@ -8452,7 +8452,7 @@
     </row>
     <row customFormat="1" r="8" s="1">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
     </row>
     <row customFormat="1" r="9" s="1">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
